--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADB6DF2-8EF2-DC41-B00F-DF1FB66576E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F993F29-4495-8A46-A271-F314600B3901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -557,46 +557,11 @@
     <t>还款流水推送</t>
   </si>
   <si>
-    <t>/api/v1/busi/project/repay</t>
-  </si>
-  <si>
     <t>{
   "X-TBC-SOURCE":"tbc_zhtb_jfx",
   "X-TBC-SIGN":"",
   "Content-Type":"application/json"
 }</t>
-  </si>
-  <si>
-    <t>{
-"channel": "jfx",
-"sourceCode": "jfx",
-"projectId": "8381938",
-"transactionId": "939919",
-"sourceProjectId": "9939481",
-"sourcePlanId": "93921939",
-"sourceRepaymentId": "8764183",
-"assetPlanOwner": 0,
-"repaymentPlanId": "87366136",
-"repayType": 1,
-"planPayDate": "2019-01-01",
-"payTime": "2019-01-01 01:01:01",
-"period": 1,
-"successAmount": 16787.65,
-"overdueStatus": 0,
-"fundingSource": 1,
-"repaymentDetailList": [{
-"sourceRepaymentDetailId": "636737",
-"payAmount": 16606.40,
-"planCategory": 1,
-"remark": "本金"
-}, {
-"sourceRepaymentDetailId": "636737",
-"payAmount": 181.25,
-"planCategory": 2,
-"remark": "利息"
-}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -828,6 +793,41 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/api/v1/busi/offline/repay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "8381938",
+	"transactionId": "939919",
+	"sourceProjectId": "9939481",
+	"sourcePlanId": "93921939",
+	"sourceRepaymentId": "8764183",
+	"assetPlanOwner": 0,
+	"repaymentPlanId": "87366136",
+	"repayType": 1,
+	"planPayDate": "2019-01-01",
+	"period": 1,
+	"successAmount": 51500.00,
+	"overdueStatus": 0,
+	"paymentFlowSource": 1,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 50000.00,
+		"planCategory": 1,
+		"remark": "本金"
+	}, {
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 1500.00,
+		"planCategory": 2,
+		"remark": "利息"
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -931,7 +931,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -955,6 +955,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1319,7 +1322,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2338,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A3B28A-2831-9548-A2A8-B12991FF08C9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2371,14 +2374,14 @@
       <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7">
         <v>2000</v>
@@ -2667,7 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2711,7 +2714,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>

--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F993F29-4495-8A46-A271-F314600B3901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374B056D-CE35-7244-B8BC-D81A87645F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="contract_query" sheetId="8" r:id="rId7"/>
     <sheet name="project_loan" sheetId="9" r:id="rId8"/>
     <sheet name="pfa_query" sheetId="13" r:id="rId9"/>
-    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
+    <sheet name="calculate" sheetId="10" r:id="rId10"/>
     <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
     <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
     <sheet name="user_repayment_plan" sheetId="15" r:id="rId13"/>
     <sheet name="repayment" sheetId="18" r:id="rId14"/>
-    <sheet name="cash_push" sheetId="17" r:id="rId15"/>
+    <sheet name="offline_repay" sheetId="19" r:id="rId15"/>
+    <sheet name="cash_push" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/busi/project/preClearCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/busi/project/queryRepaymentPlan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,12 +208,6 @@
   </si>
   <si>
     <t>{
-  "projectId": "10022797191479296"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "projectId":"10022797191479296"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,25 +217,6 @@
   "projectId":"30844098113970111",
   "clearTime":"2019-01-01 11:11:11"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前结清试算接口-正常传参</t>
-    <rPh sb="0" eb="1">
-      <t>ti qian jie qing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi suan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zheng chang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chuan can</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>can shu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -824,6 +796,66 @@
 		"payAmount": 1500.00,
 		"planCategory": 2,
 		"remark": "利息"
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划试算</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/repaymentPlan/calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "831992",
+	"transactionId": "84891",
+	"sourceProjectId": "83199",
+	"projectId": "4892001",
+	"businessType": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下还款流水推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "488921939",
+	"transactionId": "9123904034",
+	"sourceProjectId": "818239",
+	"sourcePlanId": "839193",
+	"sourceRepaymentId": "1823993",
+	"assetPlanOwner": 0,
+	"repayType": 1,
+	"planPayDate": "2019-11-22",
+	"payTime": "2019-10-22",
+	"period": 1,
+	"successAmount": 3333.33,
+	"overdueStatus": 0,
+	"paymentFlowSource": 3,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "8499103",
+		"payAmount": 3333.00,
+		"planCategory": 1
+	}, {
+		"sourceRepaymentDetailId": "8499103",
+		"repaymentPlanId": "31990321",
+		"payAmount": 0.33,
+		"planCategory": 2
 	}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,16 +1345,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2089,7 +2121,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,18 +2149,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2152,7 +2184,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2182,16 +2214,16 @@
     </row>
     <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2245,16 +2277,16 @@
     </row>
     <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2316,16 +2348,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -2341,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A3B28A-2831-9548-A2A8-B12991FF08C9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2355,33 +2387,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7">
         <v>2000</v>
@@ -2394,11 +2426,61 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C27BCE7-4814-F840-8CA0-0D11FC44CFFD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DB0E7A-5CC9-5D4C-BAAA-0EFD068B846D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2428,16 +2510,16 @@
     </row>
     <row r="2" spans="1:5" ht="340" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>2000</v>
@@ -2487,13 +2569,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2576,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2593,13 +2675,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2693,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2704,17 +2786,17 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -3847,10 +3929,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -3931,7 +4013,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
@@ -3979,16 +4061,16 @@
     </row>
     <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -4097,10 +4179,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -4147,16 +4229,16 @@
     </row>
     <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>

--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374B056D-CE35-7244-B8BC-D81A87645F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D23F10-7409-0B4B-B000-1B15F4FB1EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -639,6 +639,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/v1/busi/offline/repay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "8381938",
+	"transactionId": "939919",
+	"sourceProjectId": "9939481",
+	"sourcePlanId": "93921939",
+	"sourceRepaymentId": "8764183",
+	"assetPlanOwner": 0,
+	"repaymentPlanId": "87366136",
+	"repayType": 1,
+	"planPayDate": "2019-01-01",
+	"period": 1,
+	"successAmount": 51500.00,
+	"overdueStatus": 0,
+	"paymentFlowSource": 1,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 50000.00,
+		"planCategory": 1,
+		"remark": "本金"
+	}, {
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 1500.00,
+		"planCategory": 2,
+		"remark": "利息"
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划试算</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/repaymentPlan/calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "831992",
+	"transactionId": "84891",
+	"sourceProjectId": "83199",
+	"projectId": "4892001",
+	"businessType": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下还款流水推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "488921939",
+	"transactionId": "9123904034",
+	"sourceProjectId": "818239",
+	"sourcePlanId": "839193",
+	"sourceRepaymentId": "1823993",
+	"assetPlanOwner": 0,
+	"repayType": 1,
+	"planPayDate": "2019-11-22",
+	"payTime": "2019-10-22",
+	"period": 1,
+	"successAmount": 3333.33,
+	"overdueStatus": 0,
+	"paymentFlowSource": 3,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "8499103",
+		"payAmount": 3333.00,
+		"planCategory": 1
+	}, {
+		"sourceRepaymentDetailId": "8499103",
+		"repaymentPlanId": "31990321",
+		"payAmount": 0.33,
+		"planCategory": 2
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"channel": "jfx",
 	"sourceCode": "jfx",
@@ -657,7 +752,7 @@
 	"loanInfo": {
 		"loanAmount": 50000.0,
 		"loanTerm": 1,
-		"cycleInterval": 60,
+		"cycleInterval": 0,
 		"assetInterestRate": 0.14,
 		"assetInterestRatePeriod": 1,
 		"userInterestRate": 0.14,
@@ -762,101 +857,6 @@
 	"imageInfo": {
 		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
 	}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/offline/repay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"projectId": "8381938",
-	"transactionId": "939919",
-	"sourceProjectId": "9939481",
-	"sourcePlanId": "93921939",
-	"sourceRepaymentId": "8764183",
-	"assetPlanOwner": 0,
-	"repaymentPlanId": "87366136",
-	"repayType": 1,
-	"planPayDate": "2019-01-01",
-	"period": 1,
-	"successAmount": 51500.00,
-	"overdueStatus": 0,
-	"paymentFlowSource": 1,
-	"repaymentDetailList": [{
-		"sourceRepaymentDetailId": "636737",
-		"payAmount": 50000.00,
-		"planCategory": 1,
-		"remark": "本金"
-	}, {
-		"sourceRepaymentDetailId": "636737",
-		"payAmount": 1500.00,
-		"planCategory": 2,
-		"remark": "利息"
-	}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款计划试算</t>
-    <rPh sb="0" eb="1">
-      <t>fang kuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie guo cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/repaymentPlan/calculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"sourceUserId": "831992",
-	"transactionId": "84891",
-	"sourceProjectId": "83199",
-	"projectId": "4892001",
-	"businessType": 1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下还款流水推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"projectId": "488921939",
-	"transactionId": "9123904034",
-	"sourceProjectId": "818239",
-	"sourcePlanId": "839193",
-	"sourceRepaymentId": "1823993",
-	"assetPlanOwner": 0,
-	"repayType": 1,
-	"planPayDate": "2019-11-22",
-	"payTime": "2019-10-22",
-	"period": 1,
-	"successAmount": 3333.33,
-	"overdueStatus": 0,
-	"paymentFlowSource": 3,
-	"repaymentDetailList": [{
-		"sourceRepaymentDetailId": "8499103",
-		"payAmount": 3333.00,
-		"planCategory": 1
-	}, {
-		"sourceRepaymentDetailId": "8499103",
-		"repaymentPlanId": "31990321",
-		"payAmount": 0.33,
-		"planCategory": 2
-	}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2407,13 +2407,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7">
         <v>2000</v>
@@ -2429,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C27BCE7-4814-F840-8CA0-0D11FC44CFFD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2752,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>

--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D23F10-7409-0B4B-B000-1B15F4FB1EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782F2C1-BE98-C841-B7A5-AF1164CBB4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
 		"assetInterestRatePeriod": 1,
 		"userInterestRate": 0.14,
 		"userInterestRatePeriod": 1,
-		"repayMethod": "OT"
+		"repayMethod": "AI"
 	},
 	"cardInfo": {
 		"accountProp": 1,
@@ -2753,7 +2753,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782F2C1-BE98-C841-B7A5-AF1164CBB4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C40EB0A-184B-354C-B709-09EC9071B0A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="repayment" sheetId="18" r:id="rId14"/>
     <sheet name="offline_repay" sheetId="19" r:id="rId15"/>
     <sheet name="cash_push" sheetId="17" r:id="rId16"/>
+    <sheet name="apply_cancel" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,12 +861,26 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>进件取消</t>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/cancel</t>
+  </si>
+  <si>
+    <t>{
+  "channel" : "jfx",
+  "sourceCode" : "jfx",
+  "sourceProjectId" : "string",
+  "projectId" : "string"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -913,6 +928,12 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -963,7 +984,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -990,6 +1011,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1305,7 +1331,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1320,7 +1346,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="409.6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1362,750 +1388,750 @@
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="106" customHeight="1">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="143" customHeight="1">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="147" customHeight="1">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="126" customHeight="1">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="137" customHeight="1">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="124" customHeight="1">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="111" customHeight="1">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="89" customHeight="1">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="128" customHeight="1">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="194" customHeight="1">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="194" customHeight="1">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="194" customHeight="1">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="194" customHeight="1">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="194" customHeight="1">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" ht="178" customHeight="1">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" ht="181" customHeight="1">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" ht="181" customHeight="1">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5" ht="181" customHeight="1">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" ht="181" customHeight="1">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5" ht="181" customHeight="1">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" ht="181" customHeight="1">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" ht="181" customHeight="1">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5" ht="181" customHeight="1">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5" ht="181" customHeight="1">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:5" ht="181" customHeight="1">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5" ht="181" customHeight="1">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5" ht="181" customHeight="1">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5" ht="181" customHeight="1">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:5" ht="181" customHeight="1">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5" ht="181" customHeight="1">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" ht="181" customHeight="1">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" ht="181" customHeight="1">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5" ht="181" customHeight="1">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5" ht="181" customHeight="1">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5" ht="181" customHeight="1">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5" ht="181" customHeight="1">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5" ht="181" customHeight="1">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5" ht="181" customHeight="1">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5" ht="181" customHeight="1">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5" ht="181" customHeight="1">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5" ht="181" customHeight="1">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5" ht="181" customHeight="1">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5" ht="181" customHeight="1">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5" ht="181" customHeight="1">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5" ht="181" customHeight="1">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5" ht="181" customHeight="1">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:5" ht="181" customHeight="1">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:5" ht="181" customHeight="1">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5" ht="181" customHeight="1">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:5" ht="181" customHeight="1">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5" ht="181" customHeight="1">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:5" ht="181" customHeight="1">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:5" ht="181" customHeight="1">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5" ht="181" customHeight="1">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5" ht="181" customHeight="1">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5" ht="181" customHeight="1">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5" ht="181" customHeight="1">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5" ht="181" customHeight="1">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5" ht="181" customHeight="1">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:5" ht="181" customHeight="1">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:5" ht="181" customHeight="1">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:5" ht="181" customHeight="1">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5" ht="181" customHeight="1">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5" ht="181" customHeight="1">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5" ht="181" customHeight="1">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:5" ht="181" customHeight="1">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5" ht="181" customHeight="1">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5" ht="181" customHeight="1">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:5" ht="181" customHeight="1">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:5" ht="181" customHeight="1">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:5" ht="181" customHeight="1">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5" ht="181" customHeight="1">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5" ht="181" customHeight="1">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5" ht="181" customHeight="1">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:5" ht="181" customHeight="1">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5" ht="181" customHeight="1">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5" ht="181" customHeight="1">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:5" ht="181" customHeight="1">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:5" ht="181" customHeight="1">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:5" ht="181" customHeight="1">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5" ht="181" customHeight="1">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5" ht="181" customHeight="1">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5" ht="181" customHeight="1">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5" ht="181" customHeight="1">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5" ht="181" customHeight="1">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5" ht="181" customHeight="1">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:5" ht="181" customHeight="1">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:5" ht="181" customHeight="1">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:5" ht="181" customHeight="1">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:5" ht="181" customHeight="1">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:5" ht="181" customHeight="1">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:5" ht="181" customHeight="1">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:5" ht="181" customHeight="1">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5" ht="181" customHeight="1">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:5" ht="181" customHeight="1">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5" ht="181" customHeight="1">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5" ht="181" customHeight="1">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:5" ht="181" customHeight="1">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:5" ht="181" customHeight="1">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:5" ht="181" customHeight="1">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:5" ht="181" customHeight="1">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:5" ht="181" customHeight="1">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:5" ht="181" customHeight="1">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:5" ht="181" customHeight="1">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:5" ht="181" customHeight="1">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:5" ht="181" customHeight="1">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:5" ht="181" customHeight="1">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:5" ht="181" customHeight="1">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:5" ht="181" customHeight="1">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:5" ht="181" customHeight="1">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:5" ht="181" customHeight="1">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:5" ht="181" customHeight="1">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:5" ht="181" customHeight="1">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:5" ht="181" customHeight="1">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:5" ht="181" customHeight="1">
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:5" ht="181" customHeight="1">
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:5" ht="181" customHeight="1">
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:5" ht="181" customHeight="1">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:5" ht="181" customHeight="1">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:5" ht="181" customHeight="1">
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:5" ht="181" customHeight="1">
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:5" ht="181" customHeight="1">
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:5" ht="181" customHeight="1">
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:5" ht="181" customHeight="1">
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:5" ht="181" customHeight="1">
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:5" ht="181" customHeight="1">
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:5" ht="181" customHeight="1">
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:5" ht="181" customHeight="1">
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:5" ht="181" customHeight="1">
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:5" ht="181" customHeight="1">
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:5" ht="181" customHeight="1">
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:5" ht="181" customHeight="1">
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:5" ht="181" customHeight="1">
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:5" ht="181" customHeight="1">
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:5" ht="181" customHeight="1">
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:5" ht="181" customHeight="1">
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:5" ht="181" customHeight="1">
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:5" ht="181" customHeight="1">
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:5" ht="181" customHeight="1">
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:5" ht="181" customHeight="1">
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:5" ht="181" customHeight="1">
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:5" ht="181" customHeight="1">
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:5" ht="181" customHeight="1">
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:5" ht="181" customHeight="1">
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:5" ht="181" customHeight="1">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:5" ht="181" customHeight="1">
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:5" ht="181" customHeight="1">
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:5" ht="181" customHeight="1">
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:5" ht="181" customHeight="1">
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:5" ht="181" customHeight="1">
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:5" ht="181" customHeight="1">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:5" ht="181" customHeight="1">
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:5" ht="181" customHeight="1">
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:5" ht="181" customHeight="1">
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:5" ht="181" customHeight="1">
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:5" ht="181" customHeight="1">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:5" ht="181" customHeight="1">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:5" ht="181" customHeight="1">
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:5" ht="181" customHeight="1">
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:5" ht="181" customHeight="1">
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:5" ht="181" customHeight="1">
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:5" ht="181" customHeight="1">
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:5" ht="181" customHeight="1">
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:5" ht="181" customHeight="1">
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:5" ht="181" customHeight="1">
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:5" ht="181" customHeight="1">
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:5" ht="181" customHeight="1">
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:5" ht="181" customHeight="1">
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:5" ht="181" customHeight="1">
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:5" ht="181" customHeight="1">
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:5" ht="181" customHeight="1">
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:5" ht="181" customHeight="1">
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:5" ht="181" customHeight="1">
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:5" ht="181" customHeight="1">
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:5" ht="181" customHeight="1">
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:5" ht="181" customHeight="1">
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:5" ht="181" customHeight="1">
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:5" ht="181" customHeight="1">
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:5" ht="181" customHeight="1">
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:5" ht="181" customHeight="1">
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:5" ht="181" customHeight="1">
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:5" ht="181" customHeight="1">
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:5" ht="181" customHeight="1">
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:5" ht="181" customHeight="1">
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="4:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:5" ht="181" customHeight="1">
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
@@ -2124,7 +2150,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
@@ -2132,7 +2158,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="153">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2166,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2187,7 +2213,7 @@
       <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
@@ -2195,7 +2221,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="85">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,7 +2255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2250,7 +2276,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
@@ -2258,7 +2284,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2292,14 +2318,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -2321,7 +2347,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
@@ -2329,7 +2355,7 @@
     <col min="4" max="4" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.6">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2377,7 +2403,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
@@ -2385,7 +2411,7 @@
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>50</v>
       </c>
@@ -2402,7 +2428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
@@ -2433,9 +2459,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -2483,7 +2509,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
@@ -2491,7 +2517,7 @@
     <col min="4" max="4" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="340" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="340">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2522,6 +2548,61 @@
         <v>49</v>
       </c>
       <c r="E2">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA34612-F3B1-A44D-A153-99DB79AAA532}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="221">
+      <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -2539,7 +2620,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -2547,7 +2628,7 @@
     <col min="4" max="4" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2581,42 +2662,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2637,7 +2718,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2647,7 +2728,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2687,55 +2768,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2752,11 +2833,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -2764,7 +2845,7 @@
     <col min="5" max="5" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="134" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2810,7 +2891,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="134" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -2818,7 +2899,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="196" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -2826,7 +2907,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="196" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2834,7 +2915,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="209" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -2842,7 +2923,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="209" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2850,7 +2931,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="209" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -2858,7 +2939,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="209" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -2866,7 +2947,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="209" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2874,7 +2955,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="209" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2882,7 +2963,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="209" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2890,7 +2971,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="209" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2898,7 +2979,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="209" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -2906,7 +2987,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="209" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -2914,7 +2995,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="209" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2922,7 +3003,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="209" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -2930,7 +3011,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="209" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -2938,7 +3019,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="209" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2946,7 +3027,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="209" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -2954,7 +3035,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="209" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -2962,7 +3043,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="209" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2970,7 +3051,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="209" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2978,7 +3059,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="209" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -2986,7 +3067,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="209" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -2994,7 +3075,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="209" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -3002,7 +3083,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="209" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -3010,7 +3091,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="209" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -3018,7 +3099,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="209" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -3026,7 +3107,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="209" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -3034,7 +3115,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="209" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -3042,7 +3123,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="209" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -3050,7 +3131,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="209" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -3058,7 +3139,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="209" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -3066,7 +3147,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="209" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -3074,7 +3155,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="209" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -3082,7 +3163,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="209" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -3090,7 +3171,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="209" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -3098,7 +3179,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="209" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -3106,7 +3187,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="209" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -3114,7 +3195,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="209" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -3122,7 +3203,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="209" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -3130,7 +3211,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="209" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -3138,7 +3219,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="209" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -3146,7 +3227,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="209" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -3154,7 +3235,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="209" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -3162,7 +3243,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="209" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -3170,7 +3251,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="209" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -3178,7 +3259,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="209" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -3186,7 +3267,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="209" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -3194,7 +3275,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="209" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -3202,7 +3283,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="209" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -3210,7 +3291,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="209" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -3218,7 +3299,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="209" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -3226,7 +3307,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="209" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -3234,7 +3315,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="209" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -3242,7 +3323,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="209" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -3250,7 +3331,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="209" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -3258,7 +3339,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="209" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -3266,7 +3347,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="209" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -3274,7 +3355,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="209" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -3282,7 +3363,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="209" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -3290,7 +3371,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="209" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -3298,7 +3379,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="209" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -3306,7 +3387,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="209" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -3314,7 +3395,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="209" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -3322,7 +3403,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="209" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -3330,7 +3411,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="209" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -3338,7 +3419,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="209" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -3346,7 +3427,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="209" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -3354,7 +3435,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="209" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -3362,7 +3443,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="209" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -3370,7 +3451,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="209" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -3378,7 +3459,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="209" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -3386,7 +3467,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="209" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -3394,7 +3475,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="209" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -3402,7 +3483,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="209" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -3410,7 +3491,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="209" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -3418,7 +3499,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="209" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -3426,7 +3507,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="209" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -3434,7 +3515,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="209" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -3442,7 +3523,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="209" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -3450,7 +3531,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="209" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -3458,7 +3539,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="209" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -3466,7 +3547,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="209" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -3474,7 +3555,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="209" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -3482,7 +3563,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="209" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -3490,7 +3571,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="209" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -3498,7 +3579,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="209" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -3506,7 +3587,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="209" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -3514,7 +3595,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="209" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -3522,7 +3603,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="209" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -3530,7 +3611,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="209" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -3538,7 +3619,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="209" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -3546,7 +3627,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="209" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -3554,7 +3635,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="209" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -3562,7 +3643,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="209" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -3570,7 +3651,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="209" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -3578,7 +3659,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="209" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -3586,7 +3667,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="209" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -3594,7 +3675,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="209" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -3602,7 +3683,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="209" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -3610,7 +3691,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="209" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -3618,7 +3699,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="209" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -3626,7 +3707,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="209" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -3634,7 +3715,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="209" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -3642,7 +3723,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="209" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -3650,7 +3731,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="209" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -3658,7 +3739,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="209" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -3666,7 +3747,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="209" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -3674,7 +3755,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="209" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -3682,7 +3763,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="209" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -3690,7 +3771,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="209" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -3698,7 +3779,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="209" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -3706,7 +3787,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="209" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -3714,7 +3795,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="209" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -3722,7 +3803,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="209" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -3730,7 +3811,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="209" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -3738,7 +3819,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="209" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -3746,7 +3827,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="209" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -3754,7 +3835,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="209" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -3762,7 +3843,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="209" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -3770,7 +3851,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="209" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -3778,7 +3859,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="209" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -3786,7 +3867,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="209" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -3794,7 +3875,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="209" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -3802,7 +3883,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="209" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -3810,7 +3891,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="209" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -3818,7 +3899,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="209" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -3826,7 +3907,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="209" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -3834,7 +3915,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="209" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -3842,7 +3923,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="209" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -3850,7 +3931,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="209" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -3858,7 +3939,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="209" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -3866,7 +3947,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="209" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -3874,7 +3955,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="209" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -3896,7 +3977,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
@@ -3904,7 +3985,7 @@
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +4002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="102">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3938,28 +4019,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3980,7 +4061,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
@@ -3988,7 +4069,7 @@
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4034,7 +4115,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
@@ -4042,7 +4123,7 @@
     <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4059,7 +4140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="170">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4076,56 +4157,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -4146,7 +4227,7 @@
       <selection activeCell="C6" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
@@ -4154,7 +4235,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +4252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="340" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="340">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4202,7 +4283,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -4210,7 +4291,7 @@
     <col min="4" max="4" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4227,7 +4308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>

--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C40EB0A-184B-354C-B709-09EC9071B0A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CAD3B-F392-8A46-B0C8-E95092A71D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="offline_repay" sheetId="19" r:id="rId15"/>
     <sheet name="cash_push" sheetId="17" r:id="rId16"/>
     <sheet name="apply_cancel" sheetId="20" r:id="rId17"/>
+    <sheet name="offline_partial" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,6 +876,35 @@
   "projectId" : "string"
 }</t>
   </si>
+  <si>
+    <t>线下还款-部分还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "177105889579261952",
+	"transactionId": "939919",
+	"sourceProjectId": "185546",
+	"sourcePlanId": "93921939",
+	"sourceRepaymentId": "13908711",
+	"assetPlanOwner": 0,
+	"repaymentPlanId": "87366136",
+	"repayType": 1,
+	"planPayDate": "2020-04-18",
+	"payTime": "2020-04-29 12:25:36",
+	"period": 1,
+	"successAmount": 300,
+	"overdueStatus": 0,
+	"paymentFlowSource": 1,
+	"isPartial": "Y",
+	"sourceRequestId": "27370087350000417315166736697645",
+	"sourceUserId": "29313",
+	"serviceSn": "7513151153"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -918,6 +948,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -933,6 +964,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -984,7 +1016,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1013,7 +1045,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2561,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA34612-F3B1-A44D-A153-99DB79AAA532}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2589,7 +2620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="221">
+    <row r="2" spans="1:5" ht="102">
       <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
@@ -2597,13 +2628,69 @@
         <v>67</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="11">
         <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9462F97-2010-2C49-8EDA-7FBBDC96DB4E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="388">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/jfx_mul_test.xlsx
+++ b/data/jfx_mul_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CAD3B-F392-8A46-B0C8-E95092A71D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF19066-B8F4-F04C-98EE-51576525F9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1280" windowWidth="24340" windowHeight="14720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="apply_cancel" sheetId="20" r:id="rId17"/>
     <sheet name="offline_partial" sheetId="21" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,109 +538,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"sourceUserId": "929",
-	"transactionId": "010203",
-	"serviceSn": "1923",
-	"applyInfo": {
-		"applyTime": "2019-01-01 01:01:01",
-		"productGroup": "1099",
-		"applySource": "api",
-		"financeChannel": 1
-	},
-	"personalInfo": {
-		"cardNum": "372301199901014811",
-		"custName": "张三",
-		"phone": "15555555555",
-		"education": 5,
-		"sex": 0,
-		"age": 25,
-		"maritalStatus": 2,
-		"hasChildren": 0,
-		"personalPurchaseHouse": 3,
-		"fourVerifyResult": 1,
-		"liveAddressProvince": "110000",
-		"liveAddressCity": "110100",
-		"liveAddressBorough": "110105",
-		"liveDetailAddress": "北京市",
-		"monthIncome": 2,
-		"applicantClinicRelationship": 1,
-		"isDoctor": 1,
-		"professionalTitle": 3,
-		"position": 1,
-		"workingYear": 3,
-		"isLocalRigster": 0,
-		"livingYear": 3,
-		"isHavingOtherCompany": 0,
-		"otherCompanyNumber": 0,
-		"otherCompanyName": "无",
-		"personalEmail": "123@163.com",
-		"otherContactName": "李四",
-		"otherContactRelationship": 5,
-		"otherContactPhone": "13333333333"
-	},
-	"bindingCardInfo": {
-		"bankCode": "34",
-		"bankNameSub": "建设银行",
-		"bankCardNo": "6217002200003225701",
-		"bankCardAccountType": 0,
-		"bankPhone": "15022222222"
-	},
-	"contactInfo": {
-		"spouseName": "王二",
-		"spouseCardNum": "420101196103214835",
-		"firstContactRelationship": 2,
-		"firstContactName": "王二",
-		"firstContactCardNum": "420101196103214835",
-		"firstContactPhone": "13444442222"
-	},
-	"entityInfo": {
-		"clinicName": "好不了牙科诊所",
-		"manageAddressProvince": "110000",
-		"manageAddressCity": "110100",
-		"manageAddressBorough": "110105",
-		"manageDetailAddress": "北京市",
-		"openingDate": "2018-01-01",
-		"isChainInstitution": "Y",
-		"chainInstitutionNumber": 1,
-		"annualRunningWater": 2000000.00,
-		"inspectionEquipment": 4,
-		"chairNumber": 10,
-		"doctorNumber": 3,
-		"operateSiteOwnership": 1,
-		"monthPatients": 50,
-		"annualPlantingNumber": 130,
-		"legalPersonName": "张三",
-		"legalPersonPhone": "15822113399",
-		"legalPersonIdcard": "1298493210",
-		"enterpriseCertificateType": 1,
-		"enterpriseCertificateNum" : "2138910"
-	},
-	"imageInfo": {
-		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
-		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
-		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
-		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
-		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
-		"honorCertificate": "http://www.51wendang.com/pic/d506fc4bd0b2548690fafdfd/1-810-jpg_6-1170-0-0-1170.jpg",
-		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
-		"medicalInstitutionLicense": "http://www.jstxry.com/wf120_admins/dedit/attached/image/20170703/20170703104724_3799.jpg",
-		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
-		"shareholderCertificate": "http://img4.imgtn.bdimg.com/it/u=2423832242,4222702488&amp;fm=26&amp;gp=0.jpg",
-		"authorizationCertificate": "http://www.szwanhong.com/uploadfiles/20120719110851129.jpg",
-		"enterpriseLogo": "https://www.cloudloan.com/templates/cloudloan/images/logo.png",
-		"enterpriseEnvironment": "http://img2.ctoutiao.com/uploads/2017/08/08/eca1564b533d20393b647a5792debfcf.jpg",
-		"enterpriseDoorLicense": "https://xd-picture-prod.oss-cn-beijing.aliyuncs.com/attachment/20190606/abd1fb8fd3864a149b2d50e2abc9246d.png",
-		"chair": "http://www.deerck.com/kcy/picture/ssyy.jpg",
-		"machine": "http://p1.pccoo.cn/es_product/20131106/201311061738519940.jpg",
-		"otherCertificate": "http://a1.att.hudong.com/78/89/01300543797668146016897348231.jpg"
-	}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/busi/offline/repay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,6 +633,208 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进件取消</t>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/cancel</t>
+  </si>
+  <si>
+    <t>{
+  "channel" : "jfx",
+  "sourceCode" : "jfx",
+  "sourceProjectId" : "string",
+  "projectId" : "string"
+}</t>
+  </si>
+  <si>
+    <t>线下还款-部分还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "177105889579261952",
+	"transactionId": "939919",
+	"sourceProjectId": "185546",
+	"sourcePlanId": "93921939",
+	"sourceRepaymentId": "13908711",
+	"assetPlanOwner": 0,
+	"repaymentPlanId": "87366136",
+	"repayType": 1,
+	"planPayDate": "2020-04-18",
+	"payTime": "2020-04-29 12:25:36",
+	"period": 1,
+	"successAmount": 300,
+	"overdueStatus": 0,
+	"paymentFlowSource": 1,
+	"isPartial": "Y",
+	"sourceRequestId": "27370087350000417315166736697645",
+	"sourceUserId": "29313",
+	"serviceSn": "7513151153"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "48445",
+	"transactionId": "5287276226970207686",
+	"serviceSn": "6714203301",
+	"applyInfo": {
+		"applyTime": "2021-03-23 15:24:26",
+		"productGroup": "1099",
+		"applySource": "api",
+		"financeChannel": 1
+	},
+	"creditInfo": {
+		"sourceCreditAmt": 300000.0,
+		"auditResult": 1,
+		"rejectReason": "拒绝原因"
+	},
+	"personalInfo": {
+		"cardNum": "131001196601061647",
+		"custName": "杨丽华",
+		"phone": "15555555555",
+		"education": 5,
+		"sex": "M",
+		"age": 25,
+		"maritalStatus": 2,
+		"hasChildren": 0,
+		"personalPurchaseHouse": 3,
+		"fourVerifyResult": 1,
+		"liveAddressProvince": "110000",
+		"liveAddressCity": "110100",
+		"liveAddressBorough": "110105",
+		"liveDetailAddress": "北京市",
+		"monthIncome": 2,
+		"applicantClinicRelationship": 1,
+		"isDoctor": 0,
+		"professionalTitle": 3,
+		"position": 1,
+		"workingYear": 3,
+		"isLocalRigster": 0,
+		"livingYear": 3,
+		"isHavingOtherCompany": 0,
+		"otherCompanyNumber": 0,
+		"otherCompanyName": "无",
+		"personalEmail": "123@163.com"
+	},
+	"bindingCardInfo": {
+		"bankCode": "34",
+		"bankNameSub": "建设银行",
+		"bankCardNo": "6217002200003225701",
+		"bankCardAccountType": 0,
+		"bankPhone": "15022222222"
+	},
+	"contactInfo": {
+		"spouseName": "王二",
+		"spouseCardNum": "420101196103214835",
+		"firstContactRelationship": 2,
+		"firstContactName": "王二",
+		"firstContactCardNum": "420101196103214835",
+		"firstContactPhone": "13444442222",
+		"otherContactName": "李四",
+		"otherContactRelationship": 5,
+		"otherContactPhone": "13333333333"
+	},
+	"entityInfo": {
+		"clinicName": "好不了牙科诊所",
+		"manageAddressProvince": "110000",
+		"manageAddressCity": "110100",
+		"manageAddressBorough": "110105",
+		"manageDetailAddress": "北京市",
+		"openingDate": "2018-01-01",
+		"isChainInstitution": "Y",
+		"chainInstitutionNumber": 1,
+		"annualRunningWater": 2000000.0,
+		"inspectionEquipment": "4",
+		"chairNumber": 10,
+		"doctorNumber": 3,
+		"operateSiteOwnership": 1,
+		"monthPatients": 50,
+		"annualPlantingNumber": 130,
+		"legalPersonName": "张三",
+		"legalPersonPhone": "15822113399",
+		"legalPersonIdcard": "1298493210",
+		"enterpriseCertificateType": 1,
+		"enterpriseCertificateNum": "3298682534451313934",
+		"unifiedSocialCreditCode": "000000000000000000",
+		"permitRegistrationNumber": "000000000000000000",
+		"otherInspectionEquipment": "高端设备",
+		"hospitalCategory": 1,
+		"isAddressConsistent": 1,
+		"registerAddressProvince": "110000",
+		"registerAddressCity": "110100",
+		"registerAddressBorough": "110105",
+		"registerDetailAddress": "详细地址",
+		"isHighRiskArea": 0,
+		"cityGrading": 2,
+		"businessLicenseValidDate": "2020-01-01-2021-01-01",
+		"establishYears": 1,
+		"brandName": "品牌名称",
+		"decorateGrade": 1,
+		"companyScale": 1,
+		"clinicalMedicalResources": 1,
+		"isFieldTrip": 1,
+		"cooperationalYears": 2,
+		"purchaseTimesInRecentYears": 1,
+		"purchaseAmountInRecentYears": 1,
+		"clinicTotalLoanAmount": 1111.12,
+		"clinicTotalLoanCount": 10,
+		"clinicFirstLoanDate": "2021-01-02",
+		"clinicHistoryCreditAmount": 288888.0,
+		"clinicCurrentOverdueDays": 20,
+		"clinicOverdueTimesMoreThan5": 0,
+		"clinicOriginalLevel": 3,
+		"clinicTradingLevel": 4,
+		"supplierOriginalLevel": 6,
+		"supplierTradingLevel": 5,
+		"jfxHistoryCreditAmount": 150000.0,
+		"jfxHistoryOrderNum": 5,
+		"clinicHistorySupplierNum": 12,
+		"sourceUserProductType": 1,
+		"supplierName": "经销商",
+		"supplierUnifiedSocialCreditCode": "12839914915"
+	},
+	"imageInfo": {
+		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
+		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
+		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
+		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
+		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
+		"honorCertificate": "http://www.51wendang.com/pic/d506fc4bd0b2548690fafdfd/1-810-jpg_6-1170-0-0-1170.jpg",
+		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
+		"medicalInstitutionLicense": "http://www.jstxry.com/wf120_admins/dedit/attached/image/20170703/20170703104724_3799.jpg",
+		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
+		"shareholderCertificate": "http://img4.imgtn.bdimg.com/it/u=2423832242,4222702488&amp;fm=26&amp;gp=0.jpg",
+		"authorizationCertificate": "http://www.szwanhong.com/uploadfiles/20120719110851129.jpg",
+		"enterpriseLogo": "https://www.cloudloan.com/templates/cloudloan/images/logo.png",
+		"enterpriseEnvironment": "http://img2.ctoutiao.com/uploads/2017/08/08/eca1564b533d20393b647a5792debfcf.jpg",
+		"enterpriseDoorLicense": "https://xd-picture-prod.oss-cn-beijing.aliyuncs.com/attachment/20190606/abd1fb8fd3864a149b2d50e2abc9246d.png",
+		"chair": "http://www.deerck.com/kcy/picture/ssyy.jpg",
+		"machine": "http://p1.pccoo.cn/es_product/20131106/201311061738519940.jpg",
+		"otherCertificate": "http://a1.att.hudong.com/78/89/01300543797668146016897348231.jpg"
+	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "jfx",
+  "sourceCode": "jfx",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"channel": "jfx",
 	"sourceCode": "jfx",
@@ -749,7 +848,8 @@
 		"applicationPeriod": 0,
 		"productCode": "XJ_JFX_YYDMUL",
 		"applySource": "api",
-		"financeChannel": 1
+		"financeChannel": 1,
+		"productGroup": 1099
 	},
 	"loanInfo": {
 		"loanAmount": 50000.0,
@@ -801,17 +901,21 @@
 		"otherCompanyNumber": 0,
 		"otherCompanyName": "无",
 		"personalEmail": "123@163.com",
+		"deliveryAddressProvince": "110000",
+		"deliveryAddressCity": "110100",
+		"deliveryAddressBorough": "110105",
+		"deliveryDetailAddress": "收货地址",
+		"consigneeName": "收货联系人",
+		"consigneePhone": "18833331111"
+	},
+	"contactInfo": {
+		"firstContactRelationship": 2,
+		"firstContactName": "王二",
+		"firstContactCardNum": "420101197407188511",
+		"firstContactPhone": "13444442222",
 		"otherContactName": "李四",
 		"otherContactRelationship": 5,
 		"otherContactPhone": "13333333333"
-	},
-	"contactInfo": {
-		"spouseName": "王二",
-		"spouseCardNum": "420101197407188511",
-		"firstContactRelationship": 2,
-		"firstContactName": "王二",
-		"firstContactCardNum": "420101197407188511",
-		"firstContactPhone": "13444442222"
 	},
 	"bindingCardInfo": {
 		"bankCode": "34",
@@ -840,68 +944,47 @@
 		"legalPersonPhone": "15822113399",
 		"legalPersonIdcard": "1298493210",
 		"enterpriseCertificateType": 1,
-		"enterpriseCertificateNum": "19391"
+		"enterpriseCertificateNum": "19391",
+		"unifiedSocialCreditCode": "9140003054",
+		"permitRegistrationNumber": "000000000000000000",
+		"consumeAmount": 3333.33,
+		"downPayment": 5555.55,
+		"clinicOriginalLevel": 1,
+		"clinicTradingLevel": 2,
+		"supplierOriginalLevel": 3,
+		"supplierTradingLevel": 4,
+		"supplierCompanyBadAccountRate": 3.33,
+		"supplierDepositLowestRate": 1.11,
+		"supplierLowestDepositPayment": 11111.00,
+		"supplierEstablishYears": 1,
+		"supplierProprietorRealCity": "110000",
+		"supplierProprietorRealCityLevel": 1,
+		"supplierAccessWay": 1,
+		"supplierLegalPersonName": "经销商法人",
+		"supplierLegalPersonIdcard": "372301199509074811",
+		"supplierLegalPersonPhone": "15533330202",
+		"supplierName": "经销商名称",
+		"supplierUnifiedSocialCreditCode": "485919032"
 	},
 	"loanUsageInfo": {
 		"totalAmount": 200000.0,
 		"date": "2019-01-01",
 		"allProductNumber": 2,
 		"saleProductDetailList": [{
-			"unitPriceAmount": 100000.0,
-			"productName": "产品名称123",
-			"singleProductNumber": 5
-		}, {
-			"unitPriceAmount": 200000.0,
-			"productName": "产品名称456",
-			"singleProductNumber": 3
-		}]
+				"unitPriceAmount": 100000.0,
+				"productName": "产品名称123",
+				"singleProductNumber": 5
+			},
+			{
+				"unitPriceAmount": 200000.0,
+				"productName": "产品名称456",
+				"singleProductNumber": 3
+			}
+		]
 	},
 	"imageInfo": {
 		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
 	}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件取消</t>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/cancel</t>
-  </si>
-  <si>
-    <t>{
-  "channel" : "jfx",
-  "sourceCode" : "jfx",
-  "sourceProjectId" : "string",
-  "projectId" : "string"
-}</t>
-  </si>
-  <si>
-    <t>线下还款-部分还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"projectId": "177105889579261952",
-	"transactionId": "939919",
-	"sourceProjectId": "185546",
-	"sourcePlanId": "93921939",
-	"sourceRepaymentId": "13908711",
-	"assetPlanOwner": 0,
-	"repaymentPlanId": "87366136",
-	"repayType": 1,
-	"planPayDate": "2020-04-18",
-	"payTime": "2020-04-29 12:25:36",
-	"period": 1,
-	"successAmount": 300,
-	"overdueStatus": 0,
-	"paymentFlowSource": 1,
-	"isPartial": "Y",
-	"sourceRequestId": "27370087350000417315166736697645",
-	"sourceUserId": "29313",
-	"serviceSn": "7513151153"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1411,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2208,16 +2291,16 @@
     </row>
     <row r="2" spans="1:5" ht="153">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2464,13 +2547,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7">
         <v>2000</v>
@@ -2511,16 +2594,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2622,16 +2705,16 @@
     </row>
     <row r="2" spans="1:5" ht="102">
       <c r="A2" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="11">
         <v>2000</v>
@@ -2647,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9462F97-2010-2C49-8EDA-7FBBDC96DB4E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2678,16 +2761,16 @@
     </row>
     <row r="2" spans="1:5" ht="388">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2920,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2964,7 +3047,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -4145,7 +4228,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4153,7 +4236,7 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4173,7 +4256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119">
+    <row r="2" spans="1:5" ht="187">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4183,7 +4266,9 @@
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
